--- a/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
+++ b/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t>Coded Responses from C-CDA Vital Sign Results</t>
+    <t>Mother's body weight --at delivery</t>
   </si>
   <si>
     <t>Coded Responses from C-CDA Vital Sign Results.</t>
@@ -1370,7 +1370,7 @@
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
+    <t>pound</t>
   </si>
   <si>
     <t>A computer processable form of the unit in some unit representation system.</t>

--- a/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
+++ b/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
+++ b/docs/StructureDefinition-Observation-mother-delivery-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
